--- a/SuppXLS/Scen_GNETZEROS_CO2_province_and_sector.xlsx
+++ b/SuppXLS/Scen_GNETZEROS_CO2_province_and_sector.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8710" firstSheet="11" activeTab="13"/>
+    <workbookView windowWidth="18340" windowHeight="8720" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TotalCO2" sheetId="16" r:id="rId1"/>
@@ -5586,7 +5586,7 @@
   </sheetPr>
   <dimension ref="B4:L164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -8708,8 +8708,8 @@
   <sheetPr/>
   <dimension ref="B4:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -8792,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:12">
@@ -8812,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:12">
@@ -8832,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="4:12">
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:12">
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:12">
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:12">
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:12">
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:12">
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:12">
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:12">
@@ -8992,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:12">
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:12">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:12">
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:12">
@@ -9072,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:12">
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:12">
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:12">
@@ -9132,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:12">
@@ -9152,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:12">
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:12">
@@ -9192,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:12">
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:12">
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:12">
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:12">
@@ -9272,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:12">
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:12">
@@ -9312,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:12">
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="4:12">
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:12">
@@ -9372,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:12">
@@ -9392,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="16" spans="4:12">
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="4:12">
@@ -9431,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="4:12">
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="4:12">
@@ -9471,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:12">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="4:12">
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="4:12">
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="4:12">
@@ -9551,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="4:12">
@@ -9571,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:12">
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="4:12">
@@ -9611,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="4:12">
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="4:12">
@@ -9651,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="4:12">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="4:12">
@@ -9691,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:12">
@@ -9711,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="4:12">
@@ -9731,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="4:12">
@@ -9751,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="4:12">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="4:12">
@@ -9791,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="4:12">
@@ -9811,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="4:12">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="4:12">
@@ -9851,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="4:12">
@@ -9871,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="4:12">
@@ -9891,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="4:12">
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="4:12">
@@ -9931,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="4:12">
@@ -9951,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="4:12">
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="4:12">
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="4:12">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="16" spans="4:12">
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="4:12">
@@ -10050,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="4:12">
@@ -10070,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="4:12">
@@ -10090,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="4:12">
@@ -10110,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="4:12">
@@ -10130,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="4:12">
@@ -10150,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="4:12">
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="4:12">
@@ -10190,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="4:12">
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="4:12">
@@ -10230,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="4:12">
@@ -10250,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="4:12">
@@ -10270,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="4:12">
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="4:12">
@@ -10310,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="4:12">
@@ -10330,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="4:12">
@@ -10350,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="4:12">
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="4:12">
@@ -10390,7 +10390,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="4:12">
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="4:12">
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="4:12">
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="4:12">
@@ -10470,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="4:12">
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="4:12">
@@ -10510,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="4:12">
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="4:12">
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="4:12">
@@ -10570,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="4:12">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="4:12">
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="4:12">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="16" spans="4:12">
@@ -10649,7 +10649,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="4:12">
@@ -10669,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="4:12">
@@ -10689,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="4:12">
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="4:12">
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="4:12">
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="4:12">
@@ -10769,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="4:12">
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="4:12">
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="4:12">
@@ -10829,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="4:12">
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="4:12">
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="4:12">
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="4:12">
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="4:12">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="4:12">
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="4:12">
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="4:12">
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="4:12">
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="4:12">
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="4:12">
@@ -11049,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="4:12">
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="4:12">
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="4:12">
@@ -11109,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="4:12">
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="4:12">
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="4:12">
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="4:12">
@@ -11189,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="4:12">
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="4:12">
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="4:12">
@@ -11249,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" ht="16" spans="7:7">
